--- a/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>PIK</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +857,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +889,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +921,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,11 +950,14 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,8 +966,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,57 +976,63 @@
         <v>7000</v>
       </c>
       <c r="E17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-900</v>
       </c>
       <c r="I18" s="3">
         <v>-900</v>
       </c>
       <c r="J18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,17 +1044,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1035,47 +1069,53 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-800</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1087,7 +1127,7 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1095,40 +1135,46 @@
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1000</v>
       </c>
       <c r="I23" s="3">
         <v>-1000</v>
       </c>
       <c r="J23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,11 +1199,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1000</v>
       </c>
       <c r="I26" s="3">
         <v>-1000</v>
       </c>
       <c r="J26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
       </c>
       <c r="J27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,17 +1426,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1383,42 +1453,48 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,19 +1621,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="3">
+        <v>200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1651,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,20 +1683,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,20 +1715,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E44" s="3">
         <v>8600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,20 +1747,23 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,20 +1779,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E46" s="3">
         <v>10400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1709,8 +1811,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,8 +1843,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1749,8 +1857,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1767,8 +1875,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1778,8 +1889,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1796,8 +1907,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +1971,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1883,8 +2003,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,20 +2035,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E54" s="3">
         <v>10500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2067,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,20 +2097,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,20 +2127,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2025,8 +2159,11 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2034,11 +2171,11 @@
         <v>1700</v>
       </c>
       <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,20 +2191,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>10300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,8 +2223,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2092,11 +2235,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2112,8 +2255,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2287,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,20 +2383,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,8 +2415,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,20 +2557,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2589,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,20 +2685,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,8 +2717,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,16 +2834,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2653,20 +2852,23 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3072,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2869,11 +3090,11 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2881,8 +3102,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,16 +3166,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2956,11 +3186,11 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2968,8 +3198,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,37 +3340,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,33 +3404,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>PIK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,182 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="E9" s="3">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="F9" s="3">
         <v>2200</v>
       </c>
       <c r="G9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +853,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,8 +887,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,8 +925,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,8 +963,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,11 +998,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +1018,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1200</v>
       </c>
       <c r="G18" s="3">
         <v>-1400</v>
       </c>
       <c r="H18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1110,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,14 +1121,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1072,56 +1139,68 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1130,51 +1209,63 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,11 +1293,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1334,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1448,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,8 +1486,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1524,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,8 +1562,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,14 +1577,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1456,45 +1595,57 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1676,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1777,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,26 +1793,28 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1654,8 +1827,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,25 +1865,31 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1718,26 +1903,32 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F44" s="3">
         <v>11600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>8500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1750,8 +1941,14 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1759,17 +1956,17 @@
         <v>1700</v>
       </c>
       <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1782,26 +1979,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F46" s="3">
         <v>22100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1814,8 +2017,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1846,25 +2055,31 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1878,8 +2093,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1892,11 +2113,11 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1910,8 +2131,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2169,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,8 +2207,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2006,8 +2245,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,26 +2283,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F54" s="3">
         <v>22200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2070,8 +2321,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2341,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,25 +2357,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>4100</v>
+        <v>3300</v>
       </c>
       <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2130,26 +2391,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2162,26 +2429,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,26 +2467,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,8 +2505,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2238,14 +2523,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2258,31 +2543,37 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2290,8 +2581,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2619,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2657,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,26 +2695,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F66" s="3">
         <v>7400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,8 +2733,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2753,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2787,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2825,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2863,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,26 +2901,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-32100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,8 +2939,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2977,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +3015,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,26 +3053,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F76" s="3">
         <v>14700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2720,8 +3091,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +3129,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,8 +3230,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2846,29 +3243,35 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3302,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3340,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3378,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3416,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3454,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,16 +3512,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3093,20 +3534,26 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3584,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,8 +3622,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3180,29 +3639,35 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3680,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3714,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3752,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3790,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,40 +3828,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F100" s="3">
         <v>13500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3407,36 +3904,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F102" s="3">
         <v>8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>PIK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,8 +989,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,11 +1027,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7000</v>
       </c>
       <c r="G17" s="3">
         <v>7000</v>
       </c>
       <c r="H17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-900</v>
       </c>
       <c r="L18" s="3">
         <v>-900</v>
       </c>
       <c r="M18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,17 +1155,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1145,51 +1179,57 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
-        <v>-800</v>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>-800</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1200,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1215,7 +1255,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1223,49 +1263,55 @@
       <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1000</v>
       </c>
       <c r="L23" s="3">
         <v>-1000</v>
       </c>
       <c r="M23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,11 +1345,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1000</v>
       </c>
       <c r="L26" s="3">
         <v>-1000</v>
       </c>
       <c r="M26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1000</v>
       </c>
       <c r="L27" s="3">
         <v>-1000</v>
       </c>
       <c r="M27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1577,17 +1647,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1601,51 +1671,57 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1000</v>
       </c>
       <c r="L33" s="3">
         <v>-1000</v>
       </c>
       <c r="M33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1000</v>
       </c>
       <c r="L35" s="3">
         <v>-1000</v>
       </c>
       <c r="M35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,28 +1881,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1833,8 +1920,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,8 +1961,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1883,17 +1976,17 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1909,29 +2002,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E44" s="3">
         <v>12800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,29 +2043,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,29 +2084,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E46" s="3">
         <v>17100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,8 +2125,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,28 +2166,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2099,8 +2207,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2119,8 +2230,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,29 +2412,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E54" s="3">
         <v>18900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,8 +2453,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,29 +2489,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2397,8 +2528,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2406,20 +2540,20 @@
         <v>2100</v>
       </c>
       <c r="E58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F58" s="3">
         <v>2200</v>
       </c>
       <c r="G58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,29 +2569,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1700</v>
       </c>
       <c r="G59" s="3">
         <v>1700</v>
       </c>
       <c r="H59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,29 +2610,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2511,8 +2651,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2529,11 +2672,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2549,20 +2692,23 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2721,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,29 +2856,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2897,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,29 +3078,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2945,8 +3119,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,29 +3242,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>12400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3283,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1000</v>
       </c>
       <c r="L81" s="3">
         <v>-1000</v>
       </c>
       <c r="M81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3249,8 +3448,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3258,20 +3457,23 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3525,8 +3746,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3540,11 +3761,11 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,8 +3855,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3645,8 +3875,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3654,11 +3884,11 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3666,8 +3896,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,46 +4077,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,42 +4159,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>-2200</v>
       </c>
       <c r="E102" s="3">
         <v>-3000</v>
       </c>
       <c r="F102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G102" s="3">
         <v>8100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>PIK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +968,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1012,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,11 +1053,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>7000</v>
       </c>
       <c r="H17" s="3">
         <v>7000</v>
       </c>
       <c r="I17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-900</v>
       </c>
       <c r="M18" s="3">
         <v>-900</v>
       </c>
       <c r="N18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1179,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1158,17 +1192,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1182,54 +1216,60 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
-        <v>-800</v>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="N21" s="3">
+        <v>-800</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1243,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1258,7 +1298,7 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1266,52 +1306,58 @@
       <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1000</v>
       </c>
       <c r="M23" s="3">
         <v>-1000</v>
       </c>
       <c r="N23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,11 +1394,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1000</v>
       </c>
       <c r="M26" s="3">
         <v>-1000</v>
       </c>
       <c r="N26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1000</v>
       </c>
       <c r="M27" s="3">
         <v>-1000</v>
       </c>
       <c r="N27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1705,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1650,17 +1720,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1674,54 +1744,60 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1000</v>
       </c>
       <c r="M33" s="3">
         <v>-1000</v>
       </c>
       <c r="N33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1000</v>
       </c>
       <c r="M35" s="3">
         <v>-1000</v>
       </c>
       <c r="N35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,31 +1968,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1923,8 +2010,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,13 +2054,16 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -1979,17 +2072,17 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,32 +2098,35 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E44" s="3">
         <v>14300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,32 +2142,35 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,32 +2186,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E46" s="3">
         <v>15800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2230,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,31 +2274,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2210,13 +2318,16 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2233,8 +2344,8 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +2450,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2374,8 +2494,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,32 +2538,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E54" s="3">
         <v>17500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2582,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,32 +2620,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,8 +2662,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2543,20 +2677,20 @@
         <v>2100</v>
       </c>
       <c r="F58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G58" s="3">
         <v>2200</v>
       </c>
       <c r="H58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,8 +2706,11 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2581,23 +2718,23 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1700</v>
       </c>
       <c r="H59" s="3">
         <v>1700</v>
       </c>
       <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,32 +2750,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2654,8 +2794,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2675,11 +2818,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2838,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2704,14 +2850,14 @@
         <v>1100</v>
       </c>
       <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +2870,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,32 +3014,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,8 +3058,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,32 +3252,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-37300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3296,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,32 +3428,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E76" s="3">
         <v>10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3286,8 +3472,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1000</v>
       </c>
       <c r="M81" s="3">
         <v>-1000</v>
       </c>
       <c r="N81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3451,8 +3650,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3460,20 +3659,23 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3749,26 +3970,26 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3776,8 +3997,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,8 +4085,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3878,8 +4108,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3887,11 +4117,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -3899,8 +4129,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,8 +4323,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4089,40 +4335,43 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,45 +4411,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-3000</v>
       </c>
       <c r="F102" s="3">
         <v>-3000</v>
       </c>
       <c r="G102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H102" s="3">
         <v>8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PIK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>PIK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,234 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2300</v>
       </c>
       <c r="J9" s="3">
         <v>2200</v>
       </c>
       <c r="K9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,8 +909,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,8 +955,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,8 +1005,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,8 +1055,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,11 +1102,17 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1126,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="E17" s="3">
         <v>6000</v>
       </c>
       <c r="F17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
       </c>
       <c r="K18" s="3">
         <v>-1400</v>
       </c>
       <c r="L18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,8 +1246,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1195,20 +1263,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1219,57 +1287,69 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1301,71 +1381,83 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1397,11 +1489,17 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1542,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1692,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1742,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1792,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,8 +1842,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1723,20 +1863,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1747,57 +1887,69 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1992,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2121,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,38 +2141,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2187,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,37 +2237,43 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
+        <v>300</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2101,38 +2287,44 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F44" s="3">
         <v>12600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>14300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>12800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>11600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2145,38 +2337,44 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1600</v>
       </c>
       <c r="H45" s="3">
         <v>1700</v>
       </c>
       <c r="I45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,38 +2387,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F46" s="3">
         <v>14600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>15800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>17100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>19500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>22100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2233,8 +2437,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2277,37 +2487,43 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2321,13 +2537,19 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2347,11 +2569,11 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2365,8 +2587,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2637,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,8 +2687,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2497,8 +2737,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,38 +2787,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F54" s="3">
         <v>16100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>17500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>18900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>19900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>22200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2837,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2861,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,37 +2881,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4100</v>
       </c>
       <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>3500</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2665,8 +2927,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2680,23 +2948,23 @@
         <v>2100</v>
       </c>
       <c r="G58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,38 +2977,44 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,38 +3027,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +3077,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2821,14 +3107,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2841,29 +3127,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,11 +3165,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2885,8 +3177,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3227,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3277,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,38 +3327,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F66" s="3">
         <v>7400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,8 +3377,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3401,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3447,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3497,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3547,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,38 +3597,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-41500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-39700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-37300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-35700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-33900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-32100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3299,8 +3647,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3697,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3747,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,38 +3797,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F76" s="3">
         <v>8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>13600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>14700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3847,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3897,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +4026,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3653,29 +4051,35 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +4122,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +4172,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4222,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4272,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4322,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2600</v>
       </c>
       <c r="G89" s="3">
         <v>-2200</v>
       </c>
       <c r="H89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4396,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3982,26 +4424,32 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4492,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,8 +4542,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4097,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4111,29 +4571,35 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4616,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4662,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4712,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4762,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,8 +4812,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4338,40 +4830,46 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>13500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4414,48 +4912,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>8100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
